--- a/data/trans_orig/P36B08_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B08_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>167031</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>149971</v>
+        <v>150093</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>182649</v>
+        <v>181460</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6136887150480063</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5510080069199117</v>
+        <v>0.5514550934924909</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6710680545631049</v>
+        <v>0.6667003095005274</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>172</v>
@@ -765,19 +765,19 @@
         <v>185947</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>168501</v>
+        <v>168679</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>199834</v>
+        <v>199788</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7128832047147602</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6459992179731693</v>
+        <v>0.6466823740574731</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7661241443777773</v>
+        <v>0.7659483120597976</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>341</v>
@@ -786,19 +786,19 @@
         <v>352978</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>328376</v>
+        <v>331081</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>373806</v>
+        <v>376416</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6622309723981827</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.616074459507868</v>
+        <v>0.621147861650434</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.701306022304595</v>
+        <v>0.7062028812705469</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>105145</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>89527</v>
+        <v>90716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>122205</v>
+        <v>122083</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3863112849519937</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.328931945436895</v>
+        <v>0.3332996904994726</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4489919930800882</v>
+        <v>0.4485449065075088</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -836,19 +836,19 @@
         <v>74891</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61004</v>
+        <v>61050</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92337</v>
+        <v>92159</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2871167952852398</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2338758556222226</v>
+        <v>0.2340516879402024</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3540007820268306</v>
+        <v>0.3533176259425267</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>174</v>
@@ -857,19 +857,19 @@
         <v>180036</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159208</v>
+        <v>156598</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>204638</v>
+        <v>201933</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3377690276018173</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2986939776954048</v>
+        <v>0.2937971187294528</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.383925540492132</v>
+        <v>0.3788521383495657</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>224597</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>202600</v>
+        <v>202991</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>247170</v>
+        <v>245491</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4555027493314709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4108898803097527</v>
+        <v>0.4116846217088755</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5012825743610226</v>
+        <v>0.4978781478132354</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>284</v>
@@ -982,19 +982,19 @@
         <v>290437</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>267773</v>
+        <v>265146</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>312987</v>
+        <v>310306</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5763212786376776</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5313494621200149</v>
+        <v>0.5261368481990873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6210691694243029</v>
+        <v>0.6157492949092768</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>489</v>
@@ -1003,19 +1003,19 @@
         <v>515034</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>483438</v>
+        <v>483253</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>546583</v>
+        <v>546350</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5165708619493562</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4848811390859988</v>
+        <v>0.4846956975965396</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5482140158335972</v>
+        <v>0.5479808002205013</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>268478</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>245905</v>
+        <v>247584</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>290475</v>
+        <v>290084</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5444972506685291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4987174256389774</v>
+        <v>0.5021218521867646</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5891101196902473</v>
+        <v>0.5883153782911245</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>215</v>
@@ -1053,19 +1053,19 @@
         <v>213512</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>190962</v>
+        <v>193643</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>236176</v>
+        <v>238803</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4236787213623224</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.378930830575697</v>
+        <v>0.3842507050907232</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4686505378799848</v>
+        <v>0.4738631518009124</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>475</v>
@@ -1074,19 +1074,19 @@
         <v>481990</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>450441</v>
+        <v>450674</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>513586</v>
+        <v>513771</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4834291380506439</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4517859841664028</v>
+        <v>0.4520191997794987</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5151188609140012</v>
+        <v>0.5153043024034604</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>231536</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>214978</v>
+        <v>213826</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>247599</v>
+        <v>245545</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7261677865921258</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6742377159617339</v>
+        <v>0.6706254881081473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7765481898119483</v>
+        <v>0.7701050822027051</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>258</v>
@@ -1199,19 +1199,19 @@
         <v>258748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>243464</v>
+        <v>242226</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>272975</v>
+        <v>273990</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.771433809464068</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.72586655578313</v>
+        <v>0.7221736800244598</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.813848728236147</v>
+        <v>0.8168758492138465</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>485</v>
@@ -1220,19 +1220,19 @@
         <v>490284</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>465732</v>
+        <v>468543</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>511131</v>
+        <v>513330</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7493738755651252</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7118469343233906</v>
+        <v>0.7161443595915794</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7812380874595649</v>
+        <v>0.7845992525603558</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>87310</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>71247</v>
+        <v>73301</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>103868</v>
+        <v>105020</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2738322134078742</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2234518101880516</v>
+        <v>0.2298949177972949</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3257622840382659</v>
+        <v>0.3293745118918529</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>77</v>
@@ -1270,19 +1270,19 @@
         <v>76664</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62437</v>
+        <v>61422</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91948</v>
+        <v>93186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2285661905359319</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1861512717638529</v>
+        <v>0.1831241507861536</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.27413344421687</v>
+        <v>0.27782631997554</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>160</v>
@@ -1291,19 +1291,19 @@
         <v>163974</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>143127</v>
+        <v>140928</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>188526</v>
+        <v>185715</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2506261244348748</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2187619125404351</v>
+        <v>0.2154007474396442</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2881530656766094</v>
+        <v>0.2838556404084206</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>246068</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>228553</v>
+        <v>227013</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>262698</v>
+        <v>261799</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6860558315930556</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6372227380787451</v>
+        <v>0.6329291180431055</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7324194467354049</v>
+        <v>0.7299144850547755</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>297</v>
@@ -1416,19 +1416,19 @@
         <v>288551</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>272436</v>
+        <v>271200</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>302774</v>
+        <v>302699</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7768106998204161</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7334269465881132</v>
+        <v>0.7300987236787931</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8150994688890759</v>
+        <v>0.814899150518918</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>544</v>
@@ -1437,19 +1437,19 @@
         <v>534619</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>511243</v>
+        <v>512280</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>557752</v>
+        <v>557364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7322278449581097</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7002104684925697</v>
+        <v>0.7016311890368341</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7639108379691978</v>
+        <v>0.7633795666041755</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>112603</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95973</v>
+        <v>96872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>130118</v>
+        <v>131658</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3139441684069444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.267580553264595</v>
+        <v>0.2700855149452245</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3627772619212549</v>
+        <v>0.3670708819568942</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>87</v>
@@ -1487,19 +1487,19 @@
         <v>82905</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>68682</v>
+        <v>68757</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>99020</v>
+        <v>100256</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2231893001795839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.184900531110924</v>
+        <v>0.1851008494810824</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2665730534118866</v>
+        <v>0.269901276321207</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>202</v>
@@ -1508,19 +1508,19 @@
         <v>195508</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>172375</v>
+        <v>172763</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>218884</v>
+        <v>217847</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2677721550418903</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2360891620308021</v>
+        <v>0.2366204333958244</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2997895315074302</v>
+        <v>0.2983688109631659</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>103523</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87732</v>
+        <v>88360</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115775</v>
+        <v>117381</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5091942895534182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4315203673961664</v>
+        <v>0.4346117435181955</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5694582257027546</v>
+        <v>0.5773546769271445</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>124</v>
@@ -1633,19 +1633,19 @@
         <v>130004</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>115353</v>
+        <v>114610</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143748</v>
+        <v>143638</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6260191483474218</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5554678488456829</v>
+        <v>0.5518890333383273</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6921992701375788</v>
+        <v>0.6916700940466172</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>227</v>
@@ -1654,19 +1654,19 @@
         <v>233527</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212943</v>
+        <v>212995</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>253802</v>
+        <v>253598</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5682264034984782</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5181405973461166</v>
+        <v>0.5182656134204895</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6175600011545189</v>
+        <v>0.6170624356945457</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>99785</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>87533</v>
+        <v>85927</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>115576</v>
+        <v>114948</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4908057104465819</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4305417742972454</v>
+        <v>0.422645323072855</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5684796326038336</v>
+        <v>0.5653882564818045</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -1704,19 +1704,19 @@
         <v>77664</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>63920</v>
+        <v>64030</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>92315</v>
+        <v>93058</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3739808516525782</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3078007298624212</v>
+        <v>0.3083299059533827</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4445321511543172</v>
+        <v>0.4481109666616725</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>177</v>
@@ -1725,19 +1725,19 @@
         <v>177449</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>157174</v>
+        <v>157378</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>198033</v>
+        <v>197981</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4317735965015218</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3824399988454812</v>
+        <v>0.3829375643054543</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4818594026538834</v>
+        <v>0.4817343865795105</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>174732</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>159759</v>
+        <v>156042</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>190591</v>
+        <v>190118</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6452178386380872</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5899282759560721</v>
+        <v>0.576203190420759</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.703776871258858</v>
+        <v>0.7020317623440303</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>206</v>
@@ -1850,19 +1850,19 @@
         <v>212265</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>196330</v>
+        <v>197684</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>225797</v>
+        <v>226401</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7631495927149748</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7058586291033514</v>
+        <v>0.7107259704042485</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8117983114228158</v>
+        <v>0.8139712355444442</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>377</v>
@@ -1871,19 +1871,19 @@
         <v>386998</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>365824</v>
+        <v>365982</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>408169</v>
+        <v>407090</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.704971387776169</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6664012498097452</v>
+        <v>0.6666882114901962</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7435373348021939</v>
+        <v>0.7415721054034915</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>96079</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80220</v>
+        <v>80693</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111052</v>
+        <v>114769</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3547821613619128</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.296223128741142</v>
+        <v>0.2979682376559696</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4100717240439279</v>
+        <v>0.4237968095792409</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>64</v>
@@ -1921,19 +1921,19 @@
         <v>65879</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52347</v>
+        <v>51743</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>81814</v>
+        <v>80460</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2368504072850251</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1882016885771844</v>
+        <v>0.1860287644555559</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.294141370896649</v>
+        <v>0.2892740295957516</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>159</v>
@@ -1942,19 +1942,19 @@
         <v>161957</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>140786</v>
+        <v>141865</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>183131</v>
+        <v>182973</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.295028612223831</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2564626651978059</v>
+        <v>0.2584278945965084</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3335987501902536</v>
+        <v>0.3333117885098038</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>465119</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>443717</v>
+        <v>440817</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>488355</v>
+        <v>485872</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7562571346682531</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.721458828136355</v>
+        <v>0.7167442445590595</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7940377155540167</v>
+        <v>0.7900009099364232</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>462</v>
@@ -2067,19 +2067,19 @@
         <v>478864</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>456401</v>
+        <v>457210</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>501213</v>
+        <v>498778</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7503128036736156</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7151167739142024</v>
+        <v>0.7163837041131109</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7853306761295125</v>
+        <v>0.7815147424884183</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>912</v>
@@ -2088,19 +2088,19 @@
         <v>943982</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>914713</v>
+        <v>913567</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>974659</v>
+        <v>976470</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7532299675493148</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7298754256644753</v>
+        <v>0.7289607839046357</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7777075446305101</v>
+        <v>0.7791527124716822</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>149908</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>126672</v>
+        <v>129155</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>171310</v>
+        <v>174210</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2437428653317469</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2059622844459831</v>
+        <v>0.2099990900635767</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2785411718636448</v>
+        <v>0.2832557554409404</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>159</v>
@@ -2138,19 +2138,19 @@
         <v>159355</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>137006</v>
+        <v>139441</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>181818</v>
+        <v>181009</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2496871963263844</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2146693238704876</v>
+        <v>0.2184852575115816</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2848832260857976</v>
+        <v>0.2836162958868892</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>307</v>
@@ -2159,19 +2159,19 @@
         <v>309264</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>278587</v>
+        <v>276776</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>338533</v>
+        <v>339679</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2467700324506852</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2222924553694899</v>
+        <v>0.2208472875283178</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2701245743355247</v>
+        <v>0.2710392160953644</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>458524</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>431257</v>
+        <v>431808</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>485398</v>
+        <v>486387</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6164661648411586</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5798065331559153</v>
+        <v>0.580546776283946</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6525964330480418</v>
+        <v>0.653926472880784</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>529</v>
@@ -2284,19 +2284,19 @@
         <v>556754</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>529579</v>
+        <v>530185</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>581871</v>
+        <v>581461</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.711551312435535</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.6768203544207864</v>
+        <v>0.6775954520721409</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7436517985639772</v>
+        <v>0.7431274658119338</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>987</v>
@@ -2305,19 +2305,19 @@
         <v>1015278</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>975383</v>
+        <v>979969</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1050851</v>
+        <v>1049930</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.6652128740527207</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.639073508535409</v>
+        <v>0.6420777400266716</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.6885201363665151</v>
+        <v>0.6879169422320298</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>285271</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>258397</v>
+        <v>257408</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>312538</v>
+        <v>311987</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3835338351588414</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3474035669519582</v>
+        <v>0.3460735271192161</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4201934668440847</v>
+        <v>0.419453223716054</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>215</v>
@@ -2355,19 +2355,19 @@
         <v>225697</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>200580</v>
+        <v>200990</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>252872</v>
+        <v>252266</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.288448687564465</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2563482014360228</v>
+        <v>0.2568725341880662</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3231796455792136</v>
+        <v>0.3224045479278589</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>493</v>
@@ -2376,19 +2376,19 @@
         <v>510968</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>475395</v>
+        <v>476316</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>550863</v>
+        <v>546277</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3347871259472794</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.311479863633485</v>
+        <v>0.3120830577679702</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.360926491464591</v>
+        <v>0.3579222599733284</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>2071131</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2023674</v>
+        <v>2017955</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2133695</v>
+        <v>2128854</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6322694572759981</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6177819094330131</v>
+        <v>0.6160361948544836</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6513687992264694</v>
+        <v>0.6498909466268467</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2332</v>
@@ -2501,19 +2501,19 @@
         <v>2401570</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2345042</v>
+        <v>2351555</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2455498</v>
+        <v>2451425</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7109155939729996</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6941819389954378</v>
+        <v>0.6961098922633981</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7268794223330922</v>
+        <v>0.7256737620509387</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4362</v>
@@ -2522,19 +2522,19 @@
         <v>4472702</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4388737</v>
+        <v>4402797</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4542687</v>
+        <v>4554752</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6721978578537066</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6595789440501905</v>
+        <v>0.6616919305088612</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6827159017497733</v>
+        <v>0.6845290510300438</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1204578</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1142014</v>
+        <v>1146855</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1252035</v>
+        <v>1257754</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3677305427240019</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3486312007735312</v>
+        <v>0.3501090533731533</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3822180905669877</v>
+        <v>0.3839638051455162</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>964</v>
@@ -2572,19 +2572,19 @@
         <v>976567</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>922639</v>
+        <v>926712</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1033095</v>
+        <v>1026582</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2890844060270004</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2731205776669078</v>
+        <v>0.2743262379490614</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3058180610045624</v>
+        <v>0.303890107736602</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2147</v>
@@ -2593,19 +2593,19 @@
         <v>2181145</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2111160</v>
+        <v>2099095</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2265110</v>
+        <v>2251050</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3278021421462935</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3172840982502267</v>
+        <v>0.3154709489699563</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3404210559498095</v>
+        <v>0.3383080694911388</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>209954</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>192767</v>
+        <v>193247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>224448</v>
+        <v>225692</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7123406561854194</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6540295337513208</v>
+        <v>0.6556564987249256</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.761517598784787</v>
+        <v>0.7657390903953853</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>200</v>
@@ -2962,19 +2962,19 @@
         <v>225105</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>209345</v>
+        <v>210664</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>238383</v>
+        <v>239096</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7892858390916976</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7340264457740119</v>
+        <v>0.7386505866467129</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8358408789719979</v>
+        <v>0.8383423306322305</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>397</v>
@@ -2983,19 +2983,19 @@
         <v>435059</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>410953</v>
+        <v>412325</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>456283</v>
+        <v>455535</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7501805919202106</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7086134971110506</v>
+        <v>0.710980673615387</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7867768190624949</v>
+        <v>0.7854883813279854</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>84784</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70290</v>
+        <v>69046</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101971</v>
+        <v>101491</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2876593438145806</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.238482401215213</v>
+        <v>0.2342609096046145</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3459704662486789</v>
+        <v>0.3443435012750743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -3033,19 +3033,19 @@
         <v>60096</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>46818</v>
+        <v>46105</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>75856</v>
+        <v>74537</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2107141609083024</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1641591210280021</v>
+        <v>0.1616576693677695</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2659735542259882</v>
+        <v>0.261349413353287</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>139</v>
@@ -3054,19 +3054,19 @@
         <v>144880</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>123656</v>
+        <v>124404</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>168986</v>
+        <v>167614</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2498194080797894</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2132231809375052</v>
+        <v>0.2145116186720146</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2913865028889494</v>
+        <v>0.2890193263846131</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>283820</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>260777</v>
+        <v>262273</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>306056</v>
+        <v>309116</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.561433813728399</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5158521360902458</v>
+        <v>0.5188103977951705</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6054200660708766</v>
+        <v>0.6114736571686616</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>320</v>
@@ -3179,19 +3179,19 @@
         <v>353143</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>330274</v>
+        <v>330335</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>374788</v>
+        <v>373653</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6742391932873617</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6305765457332086</v>
+        <v>0.6306929788536448</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7155645819566627</v>
+        <v>0.7133981797687887</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>581</v>
@@ -3200,19 +3200,19 @@
         <v>636963</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>604691</v>
+        <v>606478</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>669156</v>
+        <v>668547</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6188358873069506</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5874822420228704</v>
+        <v>0.5892183871363363</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6501128815811533</v>
+        <v>0.6495207504573606</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>221707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>199471</v>
+        <v>196411</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>244750</v>
+        <v>243254</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.438566186271601</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3945799339291234</v>
+        <v>0.3885263428313384</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4841478639097543</v>
+        <v>0.4811896022048295</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>160</v>
@@ -3250,19 +3250,19 @@
         <v>170622</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>148977</v>
+        <v>150112</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>193491</v>
+        <v>193430</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3257608067126384</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2844354180433373</v>
+        <v>0.2866018202312113</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3694234542667911</v>
+        <v>0.3693070211463552</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>371</v>
@@ -3271,19 +3271,19 @@
         <v>392329</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>360136</v>
+        <v>360745</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>424601</v>
+        <v>422814</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3811641126930494</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3498871184188467</v>
+        <v>0.3504792495426394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4125177579771295</v>
+        <v>0.4107816128636637</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>258496</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>242911</v>
+        <v>242594</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270948</v>
+        <v>271639</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8002530937007291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7520045631552824</v>
+        <v>0.7510240408077231</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8388027752465851</v>
+        <v>0.8409402036887742</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>273</v>
@@ -3396,19 +3396,19 @@
         <v>292980</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>277867</v>
+        <v>277719</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>304434</v>
+        <v>306378</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8591272341652375</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8148118214188339</v>
+        <v>0.8143766870352814</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8927151495273387</v>
+        <v>0.8984157066787765</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>526</v>
@@ -3417,19 +3417,19 @@
         <v>551476</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>530002</v>
+        <v>530767</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>568122</v>
+        <v>572067</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8304881876490079</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7981496142206959</v>
+        <v>0.7993026646801745</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8555564644928503</v>
+        <v>0.8614979165536859</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>64522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>52070</v>
+        <v>51379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80107</v>
+        <v>80424</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1997469062992709</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1611972247534149</v>
+        <v>0.159059796311226</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2479954368447176</v>
+        <v>0.2489759591922769</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -3467,19 +3467,19 @@
         <v>48040</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36586</v>
+        <v>34642</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63153</v>
+        <v>63301</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1408727658347625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1072848504726617</v>
+        <v>0.1015842933212235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1851881785811662</v>
+        <v>0.1856233129647187</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>109</v>
@@ -3488,19 +3488,19 @@
         <v>112562</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>95916</v>
+        <v>91971</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>134036</v>
+        <v>133271</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1695118123509921</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1444435355071496</v>
+        <v>0.138502083446314</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2018503857793041</v>
+        <v>0.2006973353198254</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>293408</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>275492</v>
+        <v>275153</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>308746</v>
+        <v>308940</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.784550793343863</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7366441638271325</v>
+        <v>0.7357398341787</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8255640829014025</v>
+        <v>0.8260828300647672</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>316</v>
@@ -3613,19 +3613,19 @@
         <v>332770</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>316498</v>
+        <v>318385</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>344941</v>
+        <v>345004</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8555580120252302</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8137229843566621</v>
+        <v>0.8185746513758019</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8868500088275019</v>
+        <v>0.8870115199497633</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>590</v>
@@ -3634,19 +3634,19 @@
         <v>626178</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>599846</v>
+        <v>603706</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>644094</v>
+        <v>649134</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8207509897042817</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7862369668722562</v>
+        <v>0.7912963020508812</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.844234514161577</v>
+        <v>0.850839533094633</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>80574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65236</v>
+        <v>65042</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>98490</v>
+        <v>98829</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.215449206656137</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1744359170985975</v>
+        <v>0.1739171699352331</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2633558361728675</v>
+        <v>0.2642601658213</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -3684,19 +3684,19 @@
         <v>56181</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>44010</v>
+        <v>43947</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72453</v>
+        <v>70566</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1444419879747698</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.113149991172498</v>
+        <v>0.1129884800502365</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1862770156433378</v>
+        <v>0.1814253486241981</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>125</v>
@@ -3705,19 +3705,19 @@
         <v>136755</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>118839</v>
+        <v>113799</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163087</v>
+        <v>159227</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1792490102957183</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1557654858384229</v>
+        <v>0.149160466905367</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2137630331277436</v>
+        <v>0.2087036979491188</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>136185</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>121896</v>
+        <v>120975</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>150722</v>
+        <v>150500</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6405171963823969</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5733115373817889</v>
+        <v>0.5689791763327341</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7088866883698376</v>
+        <v>0.7078426465144637</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>157</v>
@@ -3830,19 +3830,19 @@
         <v>160717</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>146663</v>
+        <v>145666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>173099</v>
+        <v>173240</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7318919668823022</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6678934418480624</v>
+        <v>0.6633499029687203</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7882778309105318</v>
+        <v>0.7889199889894578</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>282</v>
@@ -3851,19 +3851,19 @@
         <v>296902</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>276280</v>
+        <v>276334</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>316447</v>
+        <v>315849</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6869416701932408</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.639228814240305</v>
+        <v>0.6393525995175724</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7321625514279569</v>
+        <v>0.7307780250694229</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>76433</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>61896</v>
+        <v>62118</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>90722</v>
+        <v>91643</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3594828036176031</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2911133116301626</v>
+        <v>0.2921573534855362</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4266884626182112</v>
+        <v>0.431020823667266</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -3901,19 +3901,19 @@
         <v>58874</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>46492</v>
+        <v>46351</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>72928</v>
+        <v>73925</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2681080331176979</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.211722169089468</v>
+        <v>0.2110800110105421</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3321065581519375</v>
+        <v>0.3366500970312796</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>126</v>
@@ -3922,19 +3922,19 @@
         <v>135307</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>115762</v>
+        <v>116360</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>155929</v>
+        <v>155875</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3130583298067592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2678374485720426</v>
+        <v>0.2692219749305771</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.360771185759695</v>
+        <v>0.3606474004824274</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>198498</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>183255</v>
+        <v>185057</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>213344</v>
+        <v>213189</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7244956042279395</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6688591881774508</v>
+        <v>0.6754360258447314</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7786834263928273</v>
+        <v>0.7781173686400221</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>223</v>
@@ -4047,19 +4047,19 @@
         <v>231718</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>218171</v>
+        <v>217385</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243437</v>
+        <v>243093</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8332292995049991</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7845151882863104</v>
+        <v>0.7816894702164924</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8753698512907665</v>
+        <v>0.8741321186295432</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>410</v>
@@ -4068,19 +4068,19 @@
         <v>430216</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>409857</v>
+        <v>409104</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>449561</v>
+        <v>448193</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7792676595641259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7423916993490728</v>
+        <v>0.7410269254635896</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8143092179211822</v>
+        <v>0.8118302094011041</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>75483</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>60637</v>
+        <v>60792</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>90726</v>
+        <v>88924</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2755043957720605</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2213165736071727</v>
+        <v>0.2218826313599778</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3311408118225491</v>
+        <v>0.3245639741552687</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>45</v>
@@ -4118,19 +4118,19 @@
         <v>46378</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>34659</v>
+        <v>35003</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59925</v>
+        <v>60711</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1667707004950008</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1246301487092334</v>
+        <v>0.1258678813704571</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2154848117136893</v>
+        <v>0.218310529783508</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>119</v>
@@ -4139,19 +4139,19 @@
         <v>121861</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>102516</v>
+        <v>103884</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>142220</v>
+        <v>142973</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2207323404358741</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1856907820788179</v>
+        <v>0.188169790598896</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2576083006509272</v>
+        <v>0.2589730745364102</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>487214</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>462386</v>
+        <v>464897</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>511057</v>
+        <v>509336</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7408537178586496</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7031016951396279</v>
+        <v>0.7069188196049644</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7771101490752902</v>
+        <v>0.774492275353409</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>519</v>
@@ -4264,19 +4264,19 @@
         <v>567386</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>546431</v>
+        <v>545292</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>586999</v>
+        <v>586919</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8233127770496922</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7929059311586889</v>
+        <v>0.7912533869376882</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8517726867910064</v>
+        <v>0.8516562241773492</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>970</v>
@@ -4285,19 +4285,19 @@
         <v>1054600</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1022842</v>
+        <v>1025536</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1085691</v>
+        <v>1085974</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7830479223917157</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7594679636057317</v>
+        <v>0.7614680367972066</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8061337232151791</v>
+        <v>0.8063434201542174</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>170424</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>146581</v>
+        <v>148302</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>195252</v>
+        <v>192741</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2591462821413504</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.22288985092471</v>
+        <v>0.2255077246465912</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2968983048603721</v>
+        <v>0.2930811803950356</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>114</v>
@@ -4335,19 +4335,19 @@
         <v>121764</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>102151</v>
+        <v>102231</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>142719</v>
+        <v>143858</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1766872229503078</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1482273132089937</v>
+        <v>0.1483437758226505</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2070940688413112</v>
+        <v>0.2087466130623117</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>276</v>
@@ -4356,19 +4356,19 @@
         <v>292188</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>261097</v>
+        <v>260814</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>323946</v>
+        <v>321252</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2169520776082842</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1938662767848209</v>
+        <v>0.1936565798457822</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2405320363942681</v>
+        <v>0.2385319632027932</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>565716</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>541975</v>
+        <v>541156</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>592649</v>
+        <v>592407</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7270768203600003</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.6965637680511183</v>
+        <v>0.6955119356570625</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7616923891875059</v>
+        <v>0.7613810781127847</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>606</v>
@@ -4481,19 +4481,19 @@
         <v>659219</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>630287</v>
+        <v>634607</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>679793</v>
+        <v>681434</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8012841488523674</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7661167835409279</v>
+        <v>0.7713684840320261</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8262920287414546</v>
+        <v>0.8282861665246625</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1120</v>
@@ -4502,19 +4502,19 @@
         <v>1224935</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1191326</v>
+        <v>1190165</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1260243</v>
+        <v>1258012</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.765215050765069</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7442195505718506</v>
+        <v>0.7434946744051971</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7872721021093833</v>
+        <v>0.7858786019160482</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>212353</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>185420</v>
+        <v>185662</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>236094</v>
+        <v>236913</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2729231796399997</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.238307610812494</v>
+        <v>0.2386189218872153</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3034362319488818</v>
+        <v>0.3044880643429375</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>150</v>
@@ -4552,19 +4552,19 @@
         <v>163484</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>142910</v>
+        <v>141269</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>192416</v>
+        <v>188096</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1987158511476326</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1737079712585455</v>
+        <v>0.1717138334753376</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2338832164590721</v>
+        <v>0.228631515967974</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>352</v>
@@ -4573,19 +4573,19 @@
         <v>375837</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>340529</v>
+        <v>342760</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>409446</v>
+        <v>410607</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.234784949234931</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2127278978906168</v>
+        <v>0.2141213980839517</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2557804494281495</v>
+        <v>0.256505325594803</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>2433291</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2383346</v>
+        <v>2377581</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2489346</v>
+        <v>2484783</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7115778080582933</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6969721790471286</v>
+        <v>0.6952862571398259</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7279701507878756</v>
+        <v>0.7266359960446286</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2614</v>
@@ -4698,19 +4698,19 @@
         <v>2823037</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2774518</v>
+        <v>2774454</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2870926</v>
+        <v>2873530</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.795563053083408</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7818896786822317</v>
+        <v>0.7818717245024267</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8090587413278787</v>
+        <v>0.8097926177105443</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4876</v>
@@ -4719,19 +4719,19 @@
         <v>5256329</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5187540</v>
+        <v>5179933</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5335256</v>
+        <v>5329566</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7543472740988879</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7444752489769761</v>
+        <v>0.7433835899677026</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7656742497742314</v>
+        <v>0.764857777511878</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>986280</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>930225</v>
+        <v>934788</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1036225</v>
+        <v>1041990</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2884221919417068</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2720298492121244</v>
+        <v>0.2733640039553714</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.303027820952871</v>
+        <v>0.3047137428601737</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>677</v>
@@ -4769,19 +4769,19 @@
         <v>725440</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>677551</v>
+        <v>674947</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>773959</v>
+        <v>774023</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.204436946916592</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1909412586721213</v>
+        <v>0.1902073822894556</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2181103213177682</v>
+        <v>0.2181282754975732</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1617</v>
@@ -4790,19 +4790,19 @@
         <v>1711720</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1632793</v>
+        <v>1638483</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1780509</v>
+        <v>1788116</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2456527259011121</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2343257502257685</v>
+        <v>0.235142222488122</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2555247510230238</v>
+        <v>0.2566164100322973</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>235668</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>219181</v>
+        <v>219512</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>248916</v>
+        <v>249162</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8048258754552394</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7485206868058055</v>
+        <v>0.7496504778195699</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.850068500761313</v>
+        <v>0.8509091748486549</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>234</v>
@@ -5159,19 +5159,19 @@
         <v>245125</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>232458</v>
+        <v>232245</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>255698</v>
+        <v>256289</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8549379506222723</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8107577384457205</v>
+        <v>0.8100162878097428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8918117723647527</v>
+        <v>0.8938756447750588</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>450</v>
@@ -5180,19 +5180,19 @@
         <v>480793</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>461320</v>
+        <v>460516</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>499259</v>
+        <v>498291</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8296180839040956</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7960177065387641</v>
+        <v>0.7946307005063772</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8614825902371092</v>
+        <v>0.8598113401573403</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>57151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43903</v>
+        <v>43657</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>73638</v>
+        <v>73307</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1951741245447606</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.149931499238687</v>
+        <v>0.1490908251513451</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2514793131941943</v>
+        <v>0.2503495221804299</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>41</v>
@@ -5230,19 +5230,19 @@
         <v>41592</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>31019</v>
+        <v>30428</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>54259</v>
+        <v>54472</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1450620493777277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1081882276352472</v>
+        <v>0.1061243552249412</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1892422615542793</v>
+        <v>0.1899837121902572</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>90</v>
@@ -5251,19 +5251,19 @@
         <v>98742</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>80276</v>
+        <v>81244</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>118215</v>
+        <v>119019</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1703819160959044</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1385174097628908</v>
+        <v>0.1401886598426598</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2039822934612357</v>
+        <v>0.2053692994936228</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>340493</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>320072</v>
+        <v>318294</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>361722</v>
+        <v>361257</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6842477985588638</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.643210226007434</v>
+        <v>0.6396386202461339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7269094024228411</v>
+        <v>0.7259750421463768</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>375</v>
@@ -5376,19 +5376,19 @@
         <v>409182</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>389764</v>
+        <v>389977</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>424777</v>
+        <v>427136</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7859094447750073</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7486124294640087</v>
+        <v>0.7490228903811151</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8158621992093537</v>
+        <v>0.8203931215721807</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>694</v>
@@ -5397,19 +5397,19 @@
         <v>749675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>721510</v>
+        <v>721773</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>778569</v>
+        <v>777895</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7362283864861409</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7085688221877443</v>
+        <v>0.708827196333421</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7646043636171548</v>
+        <v>0.7639423582300399</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>157123</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>135894</v>
+        <v>136359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>177544</v>
+        <v>179322</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3157522014411362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2730905975771589</v>
+        <v>0.2740249578536231</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.356789773992566</v>
+        <v>0.3603613797538657</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>107</v>
@@ -5447,19 +5447,19 @@
         <v>111466</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>95871</v>
+        <v>93512</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>130884</v>
+        <v>130671</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2140905552249927</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1841378007906462</v>
+        <v>0.1796068784278193</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2513875705359912</v>
+        <v>0.2509771096188848</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>259</v>
@@ -5468,19 +5468,19 @@
         <v>268589</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>239695</v>
+        <v>240369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>296754</v>
+        <v>296491</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2637716135138591</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2353956363828452</v>
+        <v>0.2360576417699601</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2914311778122559</v>
+        <v>0.2911728036665791</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>231713</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>215385</v>
+        <v>216198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246768</v>
+        <v>246964</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7294755431746665</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6780717658294617</v>
+        <v>0.6806317322014114</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.776870608502593</v>
+        <v>0.7774901137434833</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>258</v>
@@ -5593,19 +5593,19 @@
         <v>262478</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>246863</v>
+        <v>247531</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>277219</v>
+        <v>276782</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.780465512713977</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.734037351041568</v>
+        <v>0.7360233340464845</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8242971421717034</v>
+        <v>0.8229979733343764</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>503</v>
@@ -5614,19 +5614,19 @@
         <v>494190</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>470360</v>
+        <v>469477</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>514872</v>
+        <v>513418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.755698251008014</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.719257322600181</v>
+        <v>0.7179070226869098</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7873230757918402</v>
+        <v>0.7850997373835562</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>85930</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>70875</v>
+        <v>70679</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102258</v>
+        <v>101445</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2705244568253335</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2231293914974071</v>
+        <v>0.2225098862565168</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3219282341705383</v>
+        <v>0.3193682677985889</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -5664,19 +5664,19 @@
         <v>73831</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59090</v>
+        <v>59527</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>89446</v>
+        <v>88778</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.219534487286023</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1757028578282967</v>
+        <v>0.1770020266656236</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2659626489584319</v>
+        <v>0.2639766659535159</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>163</v>
@@ -5685,19 +5685,19 @@
         <v>159762</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>139080</v>
+        <v>140534</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>183592</v>
+        <v>184475</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2443017489919859</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2126769242081596</v>
+        <v>0.2149002626164438</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2807426773998189</v>
+        <v>0.2820929773130901</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>296731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>279021</v>
+        <v>281026</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>311745</v>
+        <v>312257</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8020536139534457</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7541839927300975</v>
+        <v>0.7596026300744738</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8426350589179853</v>
+        <v>0.8440210054113878</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>310</v>
@@ -5810,19 +5810,19 @@
         <v>335773</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>320871</v>
+        <v>321509</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>347986</v>
+        <v>348258</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8691476546689431</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8305723465765327</v>
+        <v>0.8322246554428487</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9007597617631482</v>
+        <v>0.9014649381113766</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>595</v>
@@ -5831,19 +5831,19 @@
         <v>632504</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>610697</v>
+        <v>610498</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>651594</v>
+        <v>652675</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8363263475553974</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8074912552178299</v>
+        <v>0.8072284518171919</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8615670852254667</v>
+        <v>0.8629965795703891</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>73233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58219</v>
+        <v>57707</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90943</v>
+        <v>88938</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1979463860465544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1573649410820148</v>
+        <v>0.1559789945886123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2458160072699028</v>
+        <v>0.2403973699255263</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -5881,19 +5881,19 @@
         <v>50552</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>38339</v>
+        <v>38067</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65454</v>
+        <v>64816</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.130852345331057</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09924023823685162</v>
+        <v>0.09853506188862328</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1694276534234672</v>
+        <v>0.1677753445571512</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>116</v>
@@ -5902,19 +5902,19 @@
         <v>123785</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>104695</v>
+        <v>103614</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>145592</v>
+        <v>145791</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1636736524446026</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1384329147745336</v>
+        <v>0.1370034204296108</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1925087447821702</v>
+        <v>0.1927715481828079</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>190309</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>179235</v>
+        <v>180046</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>197943</v>
+        <v>197645</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9009964966214307</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8485645426791276</v>
+        <v>0.8524067693557836</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9371389706574892</v>
+        <v>0.9357275243256812</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>199</v>
@@ -6027,19 +6027,19 @@
         <v>195681</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>186817</v>
+        <v>185421</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>203853</v>
+        <v>203326</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8952070165077375</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8546571311226826</v>
+        <v>0.8482720745442726</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9325961544465077</v>
+        <v>0.930183378763665</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>391</v>
@@ -6048,19 +6048,19 @@
         <v>385990</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>371036</v>
+        <v>371755</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>397280</v>
+        <v>397123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8980521468309693</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8632597155646361</v>
+        <v>0.8649333045826513</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9243203346192667</v>
+        <v>0.9239539538489365</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>20912</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13278</v>
+        <v>13576</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31986</v>
+        <v>31175</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09900350337856932</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0628610293425106</v>
+        <v>0.0642724756743188</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.151435457320872</v>
+        <v>0.1475932306442164</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -6098,19 +6098,19 @@
         <v>22906</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14734</v>
+        <v>15261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31770</v>
+        <v>33166</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1047929834922625</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0674038455534923</v>
+        <v>0.06981662123633496</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1453428688773171</v>
+        <v>0.1517279254557274</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>44</v>
@@ -6119,19 +6119,19 @@
         <v>43818</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>32528</v>
+        <v>32685</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>58772</v>
+        <v>58053</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1019478531690307</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0756796653807318</v>
+        <v>0.07604604615106318</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1367402844353625</v>
+        <v>0.1350666954173483</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>141235</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122904</v>
+        <v>123869</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>156181</v>
+        <v>156452</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5388356743824946</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4688991371348202</v>
+        <v>0.4725794394587177</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5958559401850927</v>
+        <v>0.5968889414774908</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>157</v>
@@ -6244,19 +6244,19 @@
         <v>163142</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>147146</v>
+        <v>146700</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>178817</v>
+        <v>179062</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.599736963212452</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5409324046263302</v>
+        <v>0.5392949629188066</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6573631238963017</v>
+        <v>0.6582646409301112</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>296</v>
@@ -6265,19 +6265,19 @@
         <v>304378</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>280386</v>
+        <v>281574</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>327637</v>
+        <v>328705</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5698512844960858</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5249354131349138</v>
+        <v>0.5271583405365025</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6133971654472167</v>
+        <v>0.6153964700576926</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>120877</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>105931</v>
+        <v>105660</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>139208</v>
+        <v>138243</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4611643256175054</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4041440598149073</v>
+        <v>0.4031110585225093</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5311008628651798</v>
+        <v>0.5274205605412824</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>105</v>
@@ -6315,19 +6315,19 @@
         <v>108880</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93205</v>
+        <v>92960</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>124876</v>
+        <v>125322</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.400263036787548</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3426368761036981</v>
+        <v>0.3417353590698889</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4590675953736698</v>
+        <v>0.4607050370811933</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>224</v>
@@ -6336,19 +6336,19 @@
         <v>229757</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>206498</v>
+        <v>205430</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>253749</v>
+        <v>252561</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4301487155039142</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3866028345527834</v>
+        <v>0.3846035299423073</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4750645868650863</v>
+        <v>0.4728416594634972</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>413842</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>385858</v>
+        <v>389736</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>439963</v>
+        <v>440832</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6353389797651952</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5923777232869339</v>
+        <v>0.598331457956205</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6754405850130381</v>
+        <v>0.6767740006191387</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>457</v>
@@ -6461,19 +6461,19 @@
         <v>492273</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>466901</v>
+        <v>466548</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>517678</v>
+        <v>515209</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7198275492220783</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6827273307760069</v>
+        <v>0.6822115564725475</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7569760236125944</v>
+        <v>0.7533664117154188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>826</v>
@@ -6482,19 +6482,19 @@
         <v>906115</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>866987</v>
+        <v>874041</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>940823</v>
+        <v>940479</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6786116085631518</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6493081802685795</v>
+        <v>0.6545904816140238</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.704605077520114</v>
+        <v>0.7043478941725385</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>237530</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>211409</v>
+        <v>210540</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>265514</v>
+        <v>261636</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3646610202348048</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3245594149869621</v>
+        <v>0.3232259993808614</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.407622276713066</v>
+        <v>0.4016685420437951</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>182</v>
@@ -6532,19 +6532,19 @@
         <v>191603</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>166198</v>
+        <v>168667</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>216975</v>
+        <v>217328</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2801724507779218</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2430239763874056</v>
+        <v>0.2466335882845812</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3172726692239931</v>
+        <v>0.3177884435274525</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>389</v>
@@ -6553,19 +6553,19 @@
         <v>429133</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>394425</v>
+        <v>394769</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>468261</v>
+        <v>461207</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3213883914368482</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2953949224798861</v>
+        <v>0.2956521058274613</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3506918197314207</v>
+        <v>0.3454095183859762</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>591618</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>567294</v>
+        <v>565624</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>616028</v>
+        <v>614496</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7639450260193087</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7325360064323935</v>
+        <v>0.7303796113775903</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.795465065579399</v>
+        <v>0.7934871971733086</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>567</v>
@@ -6678,19 +6678,19 @@
         <v>627141</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>602585</v>
+        <v>601495</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>651817</v>
+        <v>651180</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7617401438562065</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7319137138728703</v>
+        <v>0.7305891538317187</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7917118565059358</v>
+        <v>0.7909378582430294</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1136</v>
@@ -6699,19 +6699,19 @@
         <v>1218760</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1181631</v>
+        <v>1183657</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1251732</v>
+        <v>1251273</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7628088602910109</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7395705753585849</v>
+        <v>0.740838370546674</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7834457251401975</v>
+        <v>0.7831584713298588</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>182807</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>158397</v>
+        <v>159929</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>207131</v>
+        <v>208801</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2360549739806913</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2045349344206011</v>
+        <v>0.2065128028266914</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2674639935676065</v>
+        <v>0.2696203886224096</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>185</v>
@@ -6749,19 +6749,19 @@
         <v>196160</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>171484</v>
+        <v>172121</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>220716</v>
+        <v>221806</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2382598561437935</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2082881434940641</v>
+        <v>0.2090621417569706</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2680862861271295</v>
+        <v>0.2694108461682813</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>362</v>
@@ -6770,19 +6770,19 @@
         <v>378966</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>345994</v>
+        <v>346453</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>416095</v>
+        <v>414069</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2371911397089891</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2165542748598026</v>
+        <v>0.2168415286701412</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2604294246414153</v>
+        <v>0.2591616294533262</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>2441609</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2384617</v>
+        <v>2385157</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2494305</v>
+        <v>2490472</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7229745773568595</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7060988334748287</v>
+        <v>0.7062590082952122</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7385782521067578</v>
+        <v>0.7374432492166588</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2557</v>
@@ -6895,19 +6895,19 @@
         <v>2730794</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2681855</v>
+        <v>2676539</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2779995</v>
+        <v>2782399</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7740819879060942</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7602095461874366</v>
+        <v>0.7587026461628381</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7880286629912968</v>
+        <v>0.7887100599667769</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4891</v>
@@ -6916,19 +6916,19 @@
         <v>5172404</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5100042</v>
+        <v>5097170</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5242625</v>
+        <v>5251175</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7490856667729355</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7386060304800989</v>
+        <v>0.7381901090429763</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7592553431749243</v>
+        <v>0.760493680271219</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>935562</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>882866</v>
+        <v>886699</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>992554</v>
+        <v>992014</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2770254226431405</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2614217478932421</v>
+        <v>0.2625567507833412</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2939011665251708</v>
+        <v>0.2937409917047878</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>765</v>
@@ -6966,19 +6966,19 @@
         <v>796990</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>747789</v>
+        <v>745385</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>845929</v>
+        <v>851245</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2259180120939058</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2119713370087027</v>
+        <v>0.2112899400332231</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2397904538125632</v>
+        <v>0.2412973538371619</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1647</v>
@@ -6987,19 +6987,19 @@
         <v>1732552</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1662331</v>
+        <v>1653781</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1804914</v>
+        <v>1807786</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2509143332270645</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2407446568250756</v>
+        <v>0.239506319728781</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2613939695199009</v>
+        <v>0.2618098909570236</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>299982</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>287503</v>
+        <v>288263</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>307211</v>
+        <v>306760</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9408399093889822</v>
+        <v>0.9408399093889824</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9017024249140074</v>
+        <v>0.9040852987377977</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.963510732198693</v>
+        <v>0.9620986430677294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>522</v>
@@ -7356,19 +7356,19 @@
         <v>304929</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>293999</v>
+        <v>294940</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>309963</v>
+        <v>310067</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9647801437323812</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9301983004381988</v>
+        <v>0.9331743083097144</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9807057630723461</v>
+        <v>0.981035469304378</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>833</v>
@@ -7377,19 +7377,19 @@
         <v>604911</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>590335</v>
+        <v>590473</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>613483</v>
+        <v>614269</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9527575267440879</v>
+        <v>0.9527575267440874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9297990540736497</v>
+        <v>0.9300165542928964</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9662575697361471</v>
+        <v>0.9674963072980401</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>18863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11634</v>
+        <v>12085</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31342</v>
+        <v>30582</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.05916009061101761</v>
+        <v>0.05916009061101762</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03648926780130698</v>
+        <v>0.03790135693227058</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09829757508599264</v>
+        <v>0.09591470126220238</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>16</v>
@@ -7427,19 +7427,19 @@
         <v>11132</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6098</v>
+        <v>5994</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>22062</v>
+        <v>21121</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03521985626761891</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01929423692765394</v>
+        <v>0.01896453069562197</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06980169956180167</v>
+        <v>0.06682569169028597</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>36</v>
@@ -7448,19 +7448,19 @@
         <v>29995</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>21423</v>
+        <v>20637</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44571</v>
+        <v>44433</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04724247325591241</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03374243026385297</v>
+        <v>0.03250369270195993</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07020094592635029</v>
+        <v>0.06998344570710331</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>494236</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>478409</v>
+        <v>477102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>505620</v>
+        <v>506592</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9313843532866607</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9015571678720117</v>
+        <v>0.8990957753066992</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9528363870399641</v>
+        <v>0.954669297580148</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>668</v>
@@ -7573,19 +7573,19 @@
         <v>511201</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>499170</v>
+        <v>499474</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>520355</v>
+        <v>519900</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.935420001259421</v>
+        <v>0.9354200012594209</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9134051005573401</v>
+        <v>0.9139610791197487</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9521703385039311</v>
+        <v>0.9513378641195084</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1022</v>
@@ -7594,19 +7594,19 @@
         <v>1005438</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>986768</v>
+        <v>986996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1021886</v>
+        <v>1021779</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9334318643172149</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9160989921630605</v>
+        <v>0.9163109891736541</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9487019511104281</v>
+        <v>0.9486030128335425</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>36411</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25027</v>
+        <v>24055</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52238</v>
+        <v>53545</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06861564671333924</v>
+        <v>0.06861564671333922</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04716361296003594</v>
+        <v>0.04533070241985235</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09844283212798824</v>
+        <v>0.1009042246933009</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>49</v>
@@ -7644,19 +7644,19 @@
         <v>35293</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26139</v>
+        <v>26594</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47324</v>
+        <v>47020</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.06457999874057899</v>
+        <v>0.06457999874057897</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04782966149606879</v>
+        <v>0.04866213588049145</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08659489944265966</v>
+        <v>0.08603892088025127</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -7665,19 +7665,19 @@
         <v>71703</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>55255</v>
+        <v>55362</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>90373</v>
+        <v>90145</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06656813568278519</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05129804888957237</v>
+        <v>0.05139698716645753</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08390100783693963</v>
+        <v>0.08368901082634604</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>290285</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>278639</v>
+        <v>279280</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>298466</v>
+        <v>298638</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9186429735971686</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8817879392017423</v>
+        <v>0.8838156828742405</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9445340910185893</v>
+        <v>0.9450764591472004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>505</v>
@@ -7790,19 +7790,19 @@
         <v>335656</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>327903</v>
+        <v>326315</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>341809</v>
+        <v>341420</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9473202027376173</v>
+        <v>0.9473202027376175</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9254391895254716</v>
+        <v>0.9209549004844212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9646853407860403</v>
+        <v>0.9635868789313108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>838</v>
@@ -7811,19 +7811,19 @@
         <v>625941</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>612789</v>
+        <v>613654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>638019</v>
+        <v>636705</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9338014601554292</v>
+        <v>0.9338014601554294</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.914180056771464</v>
+        <v>0.9154705754425617</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9518193490982134</v>
+        <v>0.9498594482621953</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>25708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17527</v>
+        <v>17355</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37354</v>
+        <v>36713</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0813570264028313</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05546590898141067</v>
+        <v>0.05492354085279941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1182120607982577</v>
+        <v>0.1161843171257592</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -7861,19 +7861,19 @@
         <v>18666</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>12513</v>
+        <v>12902</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26419</v>
+        <v>28007</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0526797972623825</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03531465921395976</v>
+        <v>0.03641312106868907</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07456081047452852</v>
+        <v>0.079045099515579</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -7882,19 +7882,19 @@
         <v>44374</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32296</v>
+        <v>33610</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>57526</v>
+        <v>56661</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.06619853984457058</v>
+        <v>0.06619853984457059</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04818065090178651</v>
+        <v>0.05014055173780486</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08581994322853623</v>
+        <v>0.08452942455743835</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>366680</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>357707</v>
+        <v>357215</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>370386</v>
+        <v>370637</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9847014383317978</v>
+        <v>0.9847014383317977</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9606047305487531</v>
+        <v>0.9592835180985221</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9946544641559616</v>
+        <v>0.9953274386768269</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>588</v>
@@ -8007,19 +8007,19 @@
         <v>413471</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>405777</v>
+        <v>405396</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>417481</v>
+        <v>417434</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9798805173967384</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9616449899666665</v>
+        <v>0.9607420229488416</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9893828423377792</v>
+        <v>0.9892721128176775</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>874</v>
@@ -8028,19 +8028,19 @@
         <v>780152</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>769789</v>
+        <v>769716</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>785930</v>
+        <v>786552</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9821405102863592</v>
+        <v>0.9821405102863591</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9690955756300851</v>
+        <v>0.9690032161960692</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9894147322770548</v>
+        <v>0.9901985209305042</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>5697</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1991</v>
+        <v>1740</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14670</v>
+        <v>15162</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.01529856166820222</v>
+        <v>0.01529856166820221</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005345535844038309</v>
+        <v>0.004672561323173058</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03939526945124663</v>
+        <v>0.04071648190147591</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -8078,19 +8078,19 @@
         <v>8490</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4480</v>
+        <v>4527</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16184</v>
+        <v>16565</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.02011948260326159</v>
+        <v>0.0201194826032616</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01061715766222075</v>
+        <v>0.01072788718232239</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03835501003333194</v>
+        <v>0.03925797705115807</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>16</v>
@@ -8099,19 +8099,19 @@
         <v>14186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8408</v>
+        <v>7786</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24549</v>
+        <v>24622</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.01785948971364108</v>
+        <v>0.01785948971364107</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0105852677229454</v>
+        <v>0.009801479069495975</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03090442436991497</v>
+        <v>0.03099678380393113</v>
       </c>
     </row>
     <row r="15">
@@ -8203,7 +8203,7 @@
         <v>205150</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>202742</v>
+        <v>203537</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>205665</v>
@@ -8212,7 +8212,7 @@
         <v>0.9974969996375019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9857885909360279</v>
+        <v>0.989652559137652</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>1</v>
@@ -8224,19 +8224,19 @@
         <v>224854</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>221694</v>
+        <v>221328</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>226064</v>
+        <v>226060</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9927695729305751</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9788170332648964</v>
+        <v>0.9772003299834301</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9981092650479253</v>
+        <v>0.9980907873093661</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>765</v>
@@ -8245,19 +8245,19 @@
         <v>430005</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>426671</v>
+        <v>426883</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>431674</v>
+        <v>431686</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9950193709867466</v>
+        <v>0.9950193709867464</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9873063932031914</v>
+        <v>0.9877955206663438</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.998881524172194</v>
+        <v>0.9989109094743891</v>
       </c>
     </row>
     <row r="17">
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2923</v>
+        <v>2128</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.002503000362498083</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01421140906397272</v>
+        <v>0.01034744086234799</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -8295,19 +8295,19 @@
         <v>1638</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4798</v>
+        <v>5164</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.007230427069424844</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001890734952074683</v>
+        <v>0.001909212690633959</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02118296673510361</v>
+        <v>0.02279967001656989</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -8316,19 +8316,19 @@
         <v>2152</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5486</v>
+        <v>5274</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004980629013253527</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001118475827806145</v>
+        <v>0.001089090525610958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01269360679680883</v>
+        <v>0.01220447933365661</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>262060</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>255465</v>
+        <v>254394</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>266433</v>
+        <v>266212</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.9680586077662053</v>
+        <v>0.9680586077662052</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9436941969474774</v>
+        <v>0.9397403234392289</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9842107444821573</v>
+        <v>0.9833951780450938</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>452</v>
@@ -8441,19 +8441,19 @@
         <v>258330</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>251445</v>
+        <v>252331</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>261339</v>
+        <v>261369</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.9794487856724872</v>
+        <v>0.9794487856724868</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.953346387532937</v>
+        <v>0.9567047128631905</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9908574886496341</v>
+        <v>0.990973954408681</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>812</v>
@@ -8462,19 +8462,19 @@
         <v>520390</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>512333</v>
+        <v>512125</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>526313</v>
+        <v>525819</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9736795674007818</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.95860460581359</v>
+        <v>0.9582164584734149</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9847623497758003</v>
+        <v>0.9838370253142532</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>8647</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4274</v>
+        <v>4495</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15242</v>
+        <v>16313</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03194139223379468</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01578925551784296</v>
+        <v>0.01660482195490621</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05630580305252269</v>
+        <v>0.06025967656077173</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -8512,19 +8512,19 @@
         <v>5420</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2411</v>
+        <v>2381</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12305</v>
+        <v>11419</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.02055121432751311</v>
+        <v>0.0205512143275131</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009142511350366018</v>
+        <v>0.009026045591319091</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04665361246706332</v>
+        <v>0.04329528713681007</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>19</v>
@@ -8533,19 +8533,19 @@
         <v>14067</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8144</v>
+        <v>8638</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22124</v>
+        <v>22332</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02632043259921829</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01523765022419957</v>
+        <v>0.01616297468574659</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04139539418640956</v>
+        <v>0.04178354152658543</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>631741</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>609953</v>
+        <v>609300</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>651439</v>
+        <v>652723</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8817251621802239</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8513149507411957</v>
+        <v>0.8504041971021159</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9092180886024767</v>
+        <v>0.9110093263088699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>893</v>
@@ -8658,19 +8658,19 @@
         <v>709933</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>690590</v>
+        <v>690507</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>723942</v>
+        <v>724444</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9195338004611795</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8944812224159153</v>
+        <v>0.8943726944695998</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9376788928418515</v>
+        <v>0.938329579251746</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1424</v>
@@ -8679,19 +8679,19 @@
         <v>1341674</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1314732</v>
+        <v>1310558</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1366528</v>
+        <v>1364850</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.901335260763944</v>
+        <v>0.9013352607639442</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8832359786539548</v>
+        <v>0.8804321528536114</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9180324232096432</v>
+        <v>0.9169050981180927</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>84742</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>65044</v>
+        <v>63760</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>106530</v>
+        <v>107183</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1182748378197761</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09078191139752333</v>
+        <v>0.0889906736911302</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1486850492588041</v>
+        <v>0.1495958028978842</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>67</v>
@@ -8729,19 +8729,19 @@
         <v>62124</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48115</v>
+        <v>47613</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>81467</v>
+        <v>81550</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08046619953882052</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06232110715814922</v>
+        <v>0.0616704207482542</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1055187775840847</v>
+        <v>0.1056273055304003</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>132</v>
@@ -8750,19 +8750,19 @@
         <v>146866</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>122012</v>
+        <v>123690</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>173808</v>
+        <v>177982</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.09866473923605579</v>
+        <v>0.0986647392360558</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08196757679035671</v>
+        <v>0.08309490188190713</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1167640213460453</v>
+        <v>0.1195678471463886</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>779115</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>764980</v>
+        <v>766851</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>787071</v>
+        <v>787457</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.9771294219136599</v>
+        <v>0.9771294219136601</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9594021692365202</v>
+        <v>0.9617480937827139</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9871073484950276</v>
+        <v>0.9875912874263399</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1042</v>
@@ -8875,19 +8875,19 @@
         <v>813584</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>804139</v>
+        <v>804356</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>819887</v>
+        <v>820105</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.9806960876172819</v>
+        <v>0.9806960876172821</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9693117821811218</v>
+        <v>0.969573335639075</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9882945766471835</v>
+        <v>0.9885567527007485</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1788</v>
@@ -8896,19 +8896,19 @@
         <v>1592699</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1578003</v>
+        <v>1577877</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1603000</v>
+        <v>1603534</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9789481013490463</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.969915341699942</v>
+        <v>0.969838188165725</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9852798463360727</v>
+        <v>0.9856082638076278</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>18236</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10280</v>
+        <v>9894</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>32371</v>
+        <v>30500</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02287057808634003</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01289265150497231</v>
+        <v>0.0124087125736601</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04059783076347984</v>
+        <v>0.03825190621728622</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -8946,19 +8946,19 @@
         <v>16014</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9711</v>
+        <v>9493</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>25459</v>
+        <v>25242</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01930391238271796</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0117054233528166</v>
+        <v>0.01144324729925185</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0306882178188802</v>
+        <v>0.0304266643609253</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>33</v>
@@ -8967,19 +8967,19 @@
         <v>34250</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>23949</v>
+        <v>23415</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>48946</v>
+        <v>49072</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02105189865095369</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01472015366392716</v>
+        <v>0.01439173619237222</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03008465830005802</v>
+        <v>0.03016181183427516</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>3329251</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3288115</v>
+        <v>3292092</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3355620</v>
+        <v>3357710</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9436467648788963</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9319870849755064</v>
+        <v>0.933114333370953</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9511209811416641</v>
+        <v>0.9517132989287185</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5157</v>
@@ -9092,19 +9092,19 @@
         <v>3571959</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3547584</v>
+        <v>3547251</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3594607</v>
+        <v>3594819</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9574409779078216</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9509075415943987</v>
+        <v>0.9508182653074082</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.963511874239131</v>
+        <v>0.9635685045573145</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8356</v>
@@ -9113,19 +9113,19 @@
         <v>6901209</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6860177</v>
+        <v>6862992</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6939375</v>
+        <v>6940294</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.9507364393368332</v>
+        <v>0.9507364393368331</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9450836908993709</v>
+        <v>0.9454715237452681</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9559943003090421</v>
+        <v>0.9561209057931217</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>198818</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>172449</v>
+        <v>170359</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>239954</v>
+        <v>235977</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05635323512110369</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04887901885833602</v>
+        <v>0.04828670107128149</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06801291502449398</v>
+        <v>0.06688566662904691</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>199</v>
@@ -9163,19 +9163,19 @@
         <v>158776</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>136128</v>
+        <v>135916</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>183151</v>
+        <v>183484</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04255902209217846</v>
+        <v>0.04255902209217847</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03648812576086877</v>
+        <v>0.03643149544268569</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04909245840560111</v>
+        <v>0.04918173469259161</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>371</v>
@@ -9184,19 +9184,19 @@
         <v>357595</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>319429</v>
+        <v>318510</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>398627</v>
+        <v>395812</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0492635606631669</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04400569969095795</v>
+        <v>0.04387909420687835</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05491630910062913</v>
+        <v>0.05452847625473194</v>
       </c>
     </row>
     <row r="30">
